--- a/speech.xlsx
+++ b/speech.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\lecture_project\new_year_speech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seoultechackr-my.sharepoint.com/personal/14126813_seoultech_ac_kr/Documents/바탕 화면/대학원/project/new_year_speech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1742B84E-D453-4BFB-AA26-3D9F4F900D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1742B84E-D453-4BFB-AA26-3D9F4F900D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B6C711-EAEB-42B8-902F-FBB2835F139E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="529">
   <si>
     <t>산업군</t>
   </si>
@@ -4448,9 +4448,6 @@
       </rPr>
       <t>https://cmobile.g-enews.com/view.php?ud=201612301552016303528_1&amp;md=20161230160412_R</t>
     </r>
-  </si>
-  <si>
-    <t>생활용품</t>
   </si>
   <si>
     <t>LG생활건강</t>
@@ -27768,8 +27765,8 @@
   </sheetPr>
   <dimension ref="A1:O1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="N128" sqref="N128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28187,10 +28184,10 @@
         <v>2017</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -28467,10 +28464,10 @@
         <v>2017</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F36" s="4"/>
     </row>
@@ -29010,10 +29007,10 @@
         <v>2019</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F64" s="4"/>
     </row>
@@ -29028,10 +29025,10 @@
         <v>2018</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F65" s="4"/>
     </row>
@@ -29046,10 +29043,10 @@
         <v>2017</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F66" s="4"/>
     </row>
@@ -29204,10 +29201,10 @@
         <v>2019</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F74" s="4"/>
     </row>
@@ -29222,10 +29219,10 @@
         <v>2018</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F75" s="4"/>
     </row>
@@ -29240,10 +29237,10 @@
         <v>2017</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F76" s="4"/>
     </row>
@@ -29378,7 +29375,7 @@
         <v>187</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -29617,10 +29614,10 @@
         <v>2017</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F96" s="4"/>
     </row>
@@ -30025,1997 +30022,1997 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C117" s="2">
         <v>2021</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="F117" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C118" s="2">
         <v>2020</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E118" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C119" s="2">
         <v>2019</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E119" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C120" s="2">
         <v>2018</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E120" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C121" s="2">
         <v>2017</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E121" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C122" s="2">
         <v>2021</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="F122" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C123" s="2">
         <v>2020</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E123" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C124" s="2">
         <v>2019</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E124" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C125" s="2">
         <v>2018</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C126" s="2">
         <v>2017</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E126" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C127" s="2">
         <v>2021</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="F127" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C128" s="2">
         <v>2020</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="F128" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C129" s="2">
         <v>2019</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E129" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C130" s="2">
         <v>2018</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E130" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C131" s="2">
         <v>2017</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E131" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C132" s="2">
         <v>2021</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="F132" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C133" s="2">
         <v>2020</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E133" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C134" s="2">
         <v>2019</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E134" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C135" s="2">
         <v>2018</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E135" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C136" s="2">
         <v>2017</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E136" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C137" s="2">
         <v>2021</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E137" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="F137" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C138" s="2">
         <v>2020</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E138" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="F138" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C139" s="2">
         <v>2019</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="F139" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C140" s="2">
         <v>2018</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E140" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C141" s="2">
         <v>2017</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E141" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C142" s="2">
         <v>2021</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E142" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="F142" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C143" s="2">
         <v>2020</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E143" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C144" s="2">
         <v>2019</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E144" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C145" s="2">
         <v>2018</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E145" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="F145" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C146" s="2">
         <v>2017</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E146" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C147" s="2">
         <v>2021</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E147" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="F147" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C148" s="2">
         <v>2020</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E148" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C149" s="2">
         <v>2019</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E149" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C150" s="2">
         <v>2018</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E150" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C151" s="2">
         <v>2017</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E151" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C152" s="2">
         <v>2021</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E152" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="F152" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C153" s="2">
         <v>2020</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E153" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F153" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C154" s="2">
         <v>2019</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E154" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F154" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C155" s="2">
         <v>2018</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E155" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="F155" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C156" s="2">
         <v>2017</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E156" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="F156" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="C157" s="2">
         <v>2021</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E157" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="F157" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="C158" s="2">
         <v>2020</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E158" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="C159" s="2">
         <v>2019</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E159" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="C160" s="2">
         <v>2018</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E160" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="C161" s="2">
         <v>2017</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E161" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C162" s="2">
         <v>2021</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E162" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="F162" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C163" s="2">
         <v>2020</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E163" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C164" s="2">
         <v>2019</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E164" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C165" s="2">
         <v>2018</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E165" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="F165" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C166" s="8">
         <v>2017</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C167" s="7">
         <v>2021</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E167" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="F167" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C168" s="2">
         <v>2020</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E168" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="E168" s="11" t="s">
+      <c r="F168" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C169" s="2">
         <v>2019</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E169" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F169" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C170" s="2">
         <v>2018</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E170" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="F170" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C171" s="2">
         <v>2017</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E171" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F171" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C172" s="7">
         <v>2021</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E172" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E172" s="11" t="s">
-        <v>400</v>
-      </c>
       <c r="F172" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C173" s="2">
         <v>2020</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E173" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C174" s="2">
         <v>2019</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E174" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C175" s="2">
         <v>2018</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E175" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="F175" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C176" s="2">
         <v>2017</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E176" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C177" s="2">
         <v>2021</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E177" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="F177" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C178" s="2">
         <v>2020</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E178" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F178" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C179" s="2">
         <v>2019</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E179" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="E179" s="11" t="s">
+      <c r="F179" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C180" s="2">
         <v>2018</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E180" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="E180" s="11" t="s">
+      <c r="F180" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C181" s="2">
         <v>2017</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E181" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="F181" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C182" s="2">
         <v>2021</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E182" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="E182" s="11" t="s">
+      <c r="F182" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C183" s="2">
         <v>2020</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E183" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="E183" s="11" t="s">
+      <c r="F183" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C184" s="2">
         <v>2019</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E184" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C185" s="2">
         <v>2018</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E185" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="F185" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C186" s="2">
         <v>2017</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E186" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="E186" s="11" t="s">
+      <c r="F186" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C187" s="2">
         <v>2021</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E187" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="E187" s="11" t="s">
+      <c r="F187" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C188" s="2">
         <v>2020</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E188" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F188" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C189" s="2">
         <v>2019</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E189" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E189" s="11" t="s">
+      <c r="F189" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C190" s="2">
         <v>2018</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E190" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="F190" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C191" s="2">
         <v>2017</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E191" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F191" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C192" s="2">
         <v>2021</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E192" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="E192" s="11" t="s">
+      <c r="F192" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C193" s="2">
         <v>2020</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E193" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="F193" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C194" s="2">
         <v>2019</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E194" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F194" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C195" s="2">
         <v>2018</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E195" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C196" s="2">
         <v>2017</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E196" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F196" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C197" s="2">
         <v>2021</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E197" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="E197" s="11" t="s">
+      <c r="F197" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C198" s="2">
         <v>2020</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E198" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="E198" s="11" t="s">
+      <c r="F198" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C199" s="2">
         <v>2019</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E199" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="E199" s="11" t="s">
+      <c r="F199" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C200" s="8">
         <v>2018</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F200" s="4"/>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C201" s="8">
         <v>2017</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F201" s="4"/>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C202" s="2">
         <v>2021</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E202" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="E202" s="11" t="s">
+      <c r="F202" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C203" s="2">
         <v>2020</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E203" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="E203" s="11" t="s">
+      <c r="F203" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C204" s="2">
         <v>2019</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E204" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="E204" s="11" t="s">
+      <c r="F204" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C205" s="2">
         <v>2018</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E205" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F205" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="F205" s="4" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C206" s="2">
         <v>2017</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E206" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C207" s="2">
         <v>2021</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E207" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="E207" s="11" t="s">
+      <c r="F207" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C208" s="2">
         <v>2020</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E208" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F208" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C209" s="2">
         <v>2019</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E209" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F209" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C210" s="2">
         <v>2018</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E210" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="E210" s="11" t="s">
+      <c r="F210" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C211" s="2">
         <v>2017</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E211" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="E211" s="11" t="s">
+      <c r="F211" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C212" s="2">
         <v>2021</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E212" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="E212" s="11" t="s">
+      <c r="F212" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C213" s="2">
         <v>2020</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E213" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F213" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C214" s="2">
         <v>2019</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C215" s="2">
         <v>2018</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E215" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="E215" s="11" t="s">
+      <c r="F215" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C216" s="2">
         <v>2017</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E216" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="F216" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
